--- a/Assets/Shared/ExcelImporter/Excels/Player/PotionDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/PotionDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F253FDF-B044-48C3-A430-A1E222EEBA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="9555"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PotionExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,237 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WayOfIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하급 체력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>체력</t>
     </r>
     <r>
@@ -107,6 +339,230 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>최하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>하급</t>
     </r>
     <r>
@@ -160,9 +616,65 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>쉴드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>하급</t>
     </r>
     <r>
@@ -184,6 +696,325 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>공격속도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급 체력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>공격력</t>
     </r>
     <r>
@@ -201,8 +1032,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>포션</t>
@@ -215,29 +1046,29 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>쉴드</t>
@@ -257,8 +1088,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>포션</t>
@@ -271,29 +1102,29 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>공격속도</t>
@@ -313,8 +1144,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>포션</t>
@@ -322,55 +1153,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+    <t>최고급 체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>포션</t>
@@ -383,29 +1218,309 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최고급</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>방어력</t>
@@ -415,53 +1530,95 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포션</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>공격력</t>
@@ -471,214 +1628,1612 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포션</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쉴드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포션</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격속도</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포션</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncreaseValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WayOfIncrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉴드가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격속도가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_HUMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_DEVIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_Undead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_Elf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +3264,51 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -718,12 +3318,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -732,12 +3347,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,11 +3645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I24" sqref="I24:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1032,9 +3659,11 @@
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,233 +3671,689 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>50</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>50</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>50</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>50</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>50</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
       <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>50</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
